--- a/biology/Médecine/Alexa_Canady/Alexa_Canady.xlsx
+++ b/biology/Médecine/Alexa_Canady/Alexa_Canady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexa Irene Canady (née le 7 novembre 1950) est une médecin américaine à la retraite spécialisée en neurochirurgie pédiatrique (en). Elle est née à Lansing dans l'État du Michigan et a obtenu son diplôme de médecine à l'Université du Michigan. Après sa résidence (médecine) à l’Université du Minnesota en 1981, elle devient la première femme noire neurochirurgienne[1]. 20 ans auparavant, Ruth Kerr Jakoby (en) était devenue la première femme américaine à obtenir un diplôme de neurochirurgie, en 1961[2].
-Canady s'est ensuite spécialisée en neurochirurgie pédiatrique (en). Elle a été cheffe du service de neurochirurgie à l'Hôpital pour enfants de Michigan de 1987 jusqu'à sa retraite progressive en 2001. Elle a alors déménagé en Floride et a continué à exercer à temps partiel à l'hôpital Sacred Heart de Pensacola jusqu'à sa retraite complète en janvier 2012. Outre la chirurgie, elle a mené des recherches et a enseigné la neurochirurgie à la Wayne State University. En 1989, Canady a été intronisée au Michigan Women's Hall of Fame et, en 1993, elle a également reçu le prix du Président de l' American Medical Women's Association . Canady était connue parmi ses pairs comme une médecin qui axe sa pratique sur le patient[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexa Irene Canady (née le 7 novembre 1950) est une médecin américaine à la retraite spécialisée en neurochirurgie pédiatrique (en). Elle est née à Lansing dans l'État du Michigan et a obtenu son diplôme de médecine à l'Université du Michigan. Après sa résidence (médecine) à l’Université du Minnesota en 1981, elle devient la première femme noire neurochirurgienne. 20 ans auparavant, Ruth Kerr Jakoby (en) était devenue la première femme américaine à obtenir un diplôme de neurochirurgie, en 1961.
+Canady s'est ensuite spécialisée en neurochirurgie pédiatrique (en). Elle a été cheffe du service de neurochirurgie à l'Hôpital pour enfants de Michigan de 1987 jusqu'à sa retraite progressive en 2001. Elle a alors déménagé en Floride et a continué à exercer à temps partiel à l'hôpital Sacred Heart de Pensacola jusqu'à sa retraite complète en janvier 2012. Outre la chirurgie, elle a mené des recherches et a enseigné la neurochirurgie à la Wayne State University. En 1989, Canady a été intronisée au Michigan Women's Hall of Fame et, en 1993, elle a également reçu le prix du Président de l' American Medical Women's Association . Canady était connue parmi ses pairs comme une médecin qui axe sa pratique sur le patient.
 </t>
         </is>
       </c>
@@ -514,17 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
-Alexa Irene Canady est née à Lansing dans l'État du Michigan de l'union d'Elizabeth Hortense (Golden) Canady (en) et Clinton Canady, Jr. Ils se sont rencontrés à l'Université Fisk, puis se sont mariés le jour du 19e anniversaire de sa mère, juste avant le déploiement de son père pendant la Seconde Guerre mondiale. Sa mère était éducatrice et une présidente nationale de la Sororité Delta Sigma Theta[4]. Pendant plusieurs années, elle s'est également engagée dans la vie politique de Lansing. De plus, elle a été la première Afro-Américaine à être élue au Lansing Board of Education (en). Son père était un dentiste diplômé en médecine dentaire du Meharry Medical College (en)[5]. Les parents de Canady lui ont appris l'importance de l'éducation et du travail lorsqu'elle était enfant, ce qui l'a aidé à obtenir son diplôme d'études secondaires avec mention.
-Canady et son petit frère ont grandi à l'extérieur de Lansing et étaient les deux seuls élèves afro-américains de leur école. Sa mère étant ancienne présidente de Delta Sigma Theta et son père dentiste, elle a appris l'importance de l'éducation dès son plus jeune âge[6]. Sa mère lui a dit un jour : « Laissez les faire de vous une carte diversité – tu es la carte diversité en tant que fille noire, et alors ? Prends cette carte et joue la. » ("Let them make you the token — so what if you're the token black girl. Take that token and spend it.") Elle a été confrontée à des discriminations à l'école. Un membre de sa famille qui suivait une formation en psychologie l'a testée très jeune pour son intelligence, et lorsqu'elle a obtenu de bons résultats à l'examen, sa famille a été surprise car ses résultats scolaires n'étaient que moyens. Ils ont découvert par la suite que son professeur avait échangé ses résultats avec ceux d'une élève blanche pour cacher son intelligence[3].
-Elle a dû faire face à de nombreux obstacles tout au long de ses années à l'école. Mais malgré cela, Canady s'est démarquée parmi ses pairs pour son niveau scolaire, aussi bien pour sa participation en classe que pour ses bons résultats[7]. Elle a été diplômée du lycée Lansing Everett en 1967[8].
-Avant d'entrer à l'université, Alexa Canady a été nommée au National Merit Scholarship Program (en) en 1967[9]. Canady a fréquenté l'Université du Michigan où elle a obtenu son baccalauréat en zoologie en 1971 et est devenue membre de la même sororité que sa mère, la Delta Sigma Theta. Son séjour à l’Université du Michigan n’a pas été sans difficultés ; elle a failli abandonner ses études à un moment donné en raison d'une « crise de confiance ». Elle avait initialement choisi de se spécialiser en mathématiques, mais elle s'est vite rendu compte que cela ne la passionnait pas. Elle a ensuite entendu parler d'un programme de carrière en santé pour les minorités à son université et a décidé de le suivre[1]. Ce programme lui a permis de se rendre compte qu'elle voulait travailler dans le domaine médical. Elle a ensuite reçu son doctorat avec les félicitations du jury[10] de la Faculté de Médecine de l'Université du Michigan en 1975, où elle a rejoint la société d'honneur médicale Alpha Omega School (en). Pendant ses études de médecine, elle a également été reconnue par l'American Medical Women's Association. Malgré ses réussites à l’école de médecine, Canady avait l’impression qu’elle et les autres étudiantes étaient souvent négligées par les professeurs[3]. Cela n’a fait que la pousser à travailler plus dur. Même si elle s'est d'abord intéressé à la médecine interne, Canady a opté pour la neurochirurgie après qu'elle s'est prise de passion pour la neurologie au cours de ses deux premières années d’études en médecine[3]. Elle a opté pour cette spécialité contre les recommandations de ses tuteurs[6]. Sachant qu'il serait difficile d'obtenir une résidence en tant qu'étudiante noire, Canady a commencé à rédiger son curriculum vitae, à lire de nombreux articles et à assister à toutes les conférences et séminaires possibles, posant parfois des questions simplement pour se faire connaître dans ce petit domaine. Ses connaissances de la fluidité de l’anatomie humaine lui a été par la suite très utile dans son domaine de compétition[3].
-Elle est ensuite devenue interne en chirurgie à l'&lt;span typeof="mw:Transclusion" data-mw="{&amp;quot;parts&amp;quot;:[{&amp;quot;template&amp;quot;:{&amp;quot;target&amp;quot;:{&amp;quot;href&amp;quot;:&amp;quot;Modèle:Lien&amp;quot;,&amp;quot;wt&amp;quot;:&amp;quot;Lien&amp;quot;},&amp;quot;params&amp;quot;:{&amp;quot;fr&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;hôpital Yale-New Haven &amp;quot;},&amp;quot;langue&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;en&amp;quot;},&amp;quot;trad&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;Yale-New Haven Hospital&amp;quot;}}}}]}"&gt;&lt;/span&gt; entre 1975 et 1976, sous la direction de William F. Collins. Bien qu’elle soit une étudiante remarquable, elle était toujours confrontée à des préjugés et à des commentaires discriminatoires puisqu’elle était à la fois la première stagiaire noire et féminine du programme[10]. Lors de son premier jour en tant que stagiaire, on lui a dit que "vous devez être notre nouveau quota d'égalité des chances". Malgré ces préjugés, elle a été élue parmi les meilleurs résidents par ses confrères médecins[1].
-Après avoir terminé son internat, elle a réalisé sa résidence à l'Université du Minnesota, devenant ainsi la première femme afro-américaine résidente en neurochirurgie aux États-Unis[6]. Même si elle a déclaré qu'elle ne se souciait pas de l'importance historique qu'elle avait, après avoir déménagé à Pensacola, en Floride, en 2001, elle s'est rendue compte de ce que signifiaient ses accomplissements pour les autres Afro-Américains et les femmes en médecine[11].
-Carrière et recherche
-En 1982, après avoir terminé sa résidence, Canady a décidé de se spécialiser en neurochirurgie pédiatrique, devenant ainsi la première Afro-Américaine et la première femme à le faire. Elle a choisi la pédiatrie en raison de son amour pour les enfants du service de pédiatrie pendant sa résidence, déclarant « cela n'a jamais cessé de m'étonner de voir à quel point les enfants étaient heureux ». En tant que chirurgienne axée sur les patients, elle était connue pour jouer à des jeux vidéo avec eux et nouer des relations avec chacun d'entre eux[3].
-Elle a commencé à exercer pendant une courte période à l'hôpital Henry Ford avant de travailler à l'hôpital pour enfants du Michigan[12]. Elle est ensuite devenue la première femme afro-américaine à être neurochirurgienne certifiée en 1984[13]. Elle est devenue cheffe du service de neurochirurgie à l'Hôpital pour enfants du Michigan (en) en 1987 et a occupé ce poste jusqu'à sa retraite partielle en 2001. Durant son mandat de cheffe, elle s'est spécialisée dans les anomalies congénitales de la colonne vertébrale, l'hydrocéphalie, les traumatismes et les tumeurs cérébrales[14]. Elle a mené des recherches et publié un article sur l'efficacité du traitement de l'hydrocéphalie pratiqué depuis 2001. Alors qu’au début de sa carrière elle s’inquiétait de la façon dont elle serait reçue par ses pairs, elle a rapidement acquis de l’admiration pour son métier de chirurgienne axée sur les soins aux patients. Dans une récente interview, elle a déclaré : « C'est amusant de rendre les gens meilleurs »[15].
-Au cours de ses années à l'hôpital pour enfants du Michigan, Canady a poursuivi ses recherches avec la Wayne State University, où elle a également été professeur de neurochirurgie[6]. Son travail et ses réussites ont ouvert la voie à de nombreux chirurgiens de toutes races et de tous genres. De 2001 jusqu'à sa retraite en 2012, Canady a travaillé comme chirurgienne et consultante à temps partiel à l'hôpital Sacred Heart de Pensacola, en Floride[13]. Après avoir déménagé à Pensacola, Canady voulait définitivement prendre sa retraite. Mais après avoir rencontré des médecins locaux et réalisé le besoin d'un neurochirurgien pédiatrique dans la région, Canady a décidé de rejoindre le personnel de l'hôpital Sacré-Cœur à temps partiel[11]. En plus de sa carrière de chirurgienne, Canaday a continué à faire des recherches à la Wayne State University. Cette recherche mènerait à terme au développement d’un shunt anti-siphon permettant de traiter l’hydrocéphalie[16]. Dans une récente interview expliquant pourquoi elle pense que les étudiants devraient choisir la neurochirurgie, elle déclare : « C'est intellectuellement stimulant, vous êtes dans un certain état d'euphorie quand tout le monde dit "ah, le neurochirurgien est là" » ("It's intellectually challenging, you get kind of a high when everybody says 'ah, the neurosurgeon is here'"). Canady continue de défendre à la fois sa profession et la diversité en médecine[15].
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexa Irene Canady est née à Lansing dans l'État du Michigan de l'union d'Elizabeth Hortense (Golden) Canady (en) et Clinton Canady, Jr. Ils se sont rencontrés à l'Université Fisk, puis se sont mariés le jour du 19e anniversaire de sa mère, juste avant le déploiement de son père pendant la Seconde Guerre mondiale. Sa mère était éducatrice et une présidente nationale de la Sororité Delta Sigma Theta. Pendant plusieurs années, elle s'est également engagée dans la vie politique de Lansing. De plus, elle a été la première Afro-Américaine à être élue au Lansing Board of Education (en). Son père était un dentiste diplômé en médecine dentaire du Meharry Medical College (en). Les parents de Canady lui ont appris l'importance de l'éducation et du travail lorsqu'elle était enfant, ce qui l'a aidé à obtenir son diplôme d'études secondaires avec mention.
+Canady et son petit frère ont grandi à l'extérieur de Lansing et étaient les deux seuls élèves afro-américains de leur école. Sa mère étant ancienne présidente de Delta Sigma Theta et son père dentiste, elle a appris l'importance de l'éducation dès son plus jeune âge. Sa mère lui a dit un jour : « Laissez les faire de vous une carte diversité – tu es la carte diversité en tant que fille noire, et alors ? Prends cette carte et joue la. » ("Let them make you the token — so what if you're the token black girl. Take that token and spend it.") Elle a été confrontée à des discriminations à l'école. Un membre de sa famille qui suivait une formation en psychologie l'a testée très jeune pour son intelligence, et lorsqu'elle a obtenu de bons résultats à l'examen, sa famille a été surprise car ses résultats scolaires n'étaient que moyens. Ils ont découvert par la suite que son professeur avait échangé ses résultats avec ceux d'une élève blanche pour cacher son intelligence.
+Elle a dû faire face à de nombreux obstacles tout au long de ses années à l'école. Mais malgré cela, Canady s'est démarquée parmi ses pairs pour son niveau scolaire, aussi bien pour sa participation en classe que pour ses bons résultats. Elle a été diplômée du lycée Lansing Everett en 1967.
+Avant d'entrer à l'université, Alexa Canady a été nommée au National Merit Scholarship Program (en) en 1967. Canady a fréquenté l'Université du Michigan où elle a obtenu son baccalauréat en zoologie en 1971 et est devenue membre de la même sororité que sa mère, la Delta Sigma Theta. Son séjour à l’Université du Michigan n’a pas été sans difficultés ; elle a failli abandonner ses études à un moment donné en raison d'une « crise de confiance ». Elle avait initialement choisi de se spécialiser en mathématiques, mais elle s'est vite rendu compte que cela ne la passionnait pas. Elle a ensuite entendu parler d'un programme de carrière en santé pour les minorités à son université et a décidé de le suivre. Ce programme lui a permis de se rendre compte qu'elle voulait travailler dans le domaine médical. Elle a ensuite reçu son doctorat avec les félicitations du jury de la Faculté de Médecine de l'Université du Michigan en 1975, où elle a rejoint la société d'honneur médicale Alpha Omega School (en). Pendant ses études de médecine, elle a également été reconnue par l'American Medical Women's Association. Malgré ses réussites à l’école de médecine, Canady avait l’impression qu’elle et les autres étudiantes étaient souvent négligées par les professeurs. Cela n’a fait que la pousser à travailler plus dur. Même si elle s'est d'abord intéressé à la médecine interne, Canady a opté pour la neurochirurgie après qu'elle s'est prise de passion pour la neurologie au cours de ses deux premières années d’études en médecine. Elle a opté pour cette spécialité contre les recommandations de ses tuteurs. Sachant qu'il serait difficile d'obtenir une résidence en tant qu'étudiante noire, Canady a commencé à rédiger son curriculum vitae, à lire de nombreux articles et à assister à toutes les conférences et séminaires possibles, posant parfois des questions simplement pour se faire connaître dans ce petit domaine. Ses connaissances de la fluidité de l’anatomie humaine lui a été par la suite très utile dans son domaine de compétition.
+Elle est ensuite devenue interne en chirurgie à l'&lt;span typeof="mw:Transclusion" data-mw="{&amp;quot;parts&amp;quot;:[{&amp;quot;template&amp;quot;:{&amp;quot;target&amp;quot;:{&amp;quot;href&amp;quot;:&amp;quot;Modèle:Lien&amp;quot;,&amp;quot;wt&amp;quot;:&amp;quot;Lien&amp;quot;},&amp;quot;params&amp;quot;:{&amp;quot;fr&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;hôpital Yale-New Haven &amp;quot;},&amp;quot;langue&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;en&amp;quot;},&amp;quot;trad&amp;quot;:{&amp;quot;wt&amp;quot;:&amp;quot;Yale-New Haven Hospital&amp;quot;}}}}]}"&gt;&lt;/span&gt; entre 1975 et 1976, sous la direction de William F. Collins. Bien qu’elle soit une étudiante remarquable, elle était toujours confrontée à des préjugés et à des commentaires discriminatoires puisqu’elle était à la fois la première stagiaire noire et féminine du programme. Lors de son premier jour en tant que stagiaire, on lui a dit que "vous devez être notre nouveau quota d'égalité des chances". Malgré ces préjugés, elle a été élue parmi les meilleurs résidents par ses confrères médecins.
+Après avoir terminé son internat, elle a réalisé sa résidence à l'Université du Minnesota, devenant ainsi la première femme afro-américaine résidente en neurochirurgie aux États-Unis. Même si elle a déclaré qu'elle ne se souciait pas de l'importance historique qu'elle avait, après avoir déménagé à Pensacola, en Floride, en 2001, elle s'est rendue compte de ce que signifiaient ses accomplissements pour les autres Afro-Américains et les femmes en médecine.
 </t>
         </is>
       </c>
@@ -550,15 +563,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière et recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1982, après avoir terminé sa résidence, Canady a décidé de se spécialiser en neurochirurgie pédiatrique, devenant ainsi la première Afro-Américaine et la première femme à le faire. Elle a choisi la pédiatrie en raison de son amour pour les enfants du service de pédiatrie pendant sa résidence, déclarant « cela n'a jamais cessé de m'étonner de voir à quel point les enfants étaient heureux ». En tant que chirurgienne axée sur les patients, elle était connue pour jouer à des jeux vidéo avec eux et nouer des relations avec chacun d'entre eux.
+Elle a commencé à exercer pendant une courte période à l'hôpital Henry Ford avant de travailler à l'hôpital pour enfants du Michigan. Elle est ensuite devenue la première femme afro-américaine à être neurochirurgienne certifiée en 1984. Elle est devenue cheffe du service de neurochirurgie à l'Hôpital pour enfants du Michigan (en) en 1987 et a occupé ce poste jusqu'à sa retraite partielle en 2001. Durant son mandat de cheffe, elle s'est spécialisée dans les anomalies congénitales de la colonne vertébrale, l'hydrocéphalie, les traumatismes et les tumeurs cérébrales. Elle a mené des recherches et publié un article sur l'efficacité du traitement de l'hydrocéphalie pratiqué depuis 2001. Alors qu’au début de sa carrière elle s’inquiétait de la façon dont elle serait reçue par ses pairs, elle a rapidement acquis de l’admiration pour son métier de chirurgienne axée sur les soins aux patients. Dans une récente interview, elle a déclaré : « C'est amusant de rendre les gens meilleurs ».
+Au cours de ses années à l'hôpital pour enfants du Michigan, Canady a poursuivi ses recherches avec la Wayne State University, où elle a également été professeur de neurochirurgie. Son travail et ses réussites ont ouvert la voie à de nombreux chirurgiens de toutes races et de tous genres. De 2001 jusqu'à sa retraite en 2012, Canady a travaillé comme chirurgienne et consultante à temps partiel à l'hôpital Sacred Heart de Pensacola, en Floride. Après avoir déménagé à Pensacola, Canady voulait définitivement prendre sa retraite. Mais après avoir rencontré des médecins locaux et réalisé le besoin d'un neurochirurgien pédiatrique dans la région, Canady a décidé de rejoindre le personnel de l'hôpital Sacré-Cœur à temps partiel. En plus de sa carrière de chirurgienne, Canaday a continué à faire des recherches à la Wayne State University. Cette recherche mènerait à terme au développement d’un shunt anti-siphon permettant de traiter l’hydrocéphalie. Dans une récente interview expliquant pourquoi elle pense que les étudiants devraient choisir la neurochirurgie, elle déclare : « C'est intellectuellement stimulant, vous êtes dans un certain état d'euphorie quand tout le monde dit "ah, le neurochirurgien est là" » ("It's intellectually challenging, you get kind of a high when everybody says 'ah, the neurosurgeon is here'"). Canady continue de défendre à la fois sa profession et la diversité en médecine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexa_Canady</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexa_Canady</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canada a été intronisée au Michigan's Women's Hall of Fame en 1989[17]. Canady a reçu le prix du Président de l'American Medical Women's Association en 1993 et, en 1994, le prix pour service distingué de la faculté de médecine de l'université Wayne State[18]. En 1984, elle a été nommée Enseignante de l'année par l'hôpital pour enfants du Michigan. Elle a reçu le Candace Award (en) octroyé par la Coalition nationale des 100 femmes noires en 1986[19]. Elle est membre du Congrès des chirurgiens neurologiques, de l'Association américaine des chirurgiens neurologiques, de la Society of Pediatric Neurosurgery et de l'American College of Neurosurgery[7]. Elle a été diplômée du lycée Lansing Everett en 1967[8].
-Elle a également reçu trois diplômes honorifiques : un doctorat en lettres de l'Université de Detroit-Mercy en 1997 et de l'Université Roosevelt en 2014, et un doctorat en sciences de l'Université du Connecticut du Sud en 1999[1].
-Canady a également été présentée dans une courte animation du Mois de l'histoire des Noirs de Nickelodeon diffusée en février 2015 pour célébrer sa réussite en tant que première femme afro-américaine à devenir neurochirurgienne[6].
-Canada a déclaré qu'elle n'aimait pas attirer l'attention ou être célèbre. En revanche, elle a déclaré que "si vous faites du bon travail, le reste n'a pas d'importance"[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canada a été intronisée au Michigan's Women's Hall of Fame en 1989. Canady a reçu le prix du Président de l'American Medical Women's Association en 1993 et, en 1994, le prix pour service distingué de la faculté de médecine de l'université Wayne State. En 1984, elle a été nommée Enseignante de l'année par l'hôpital pour enfants du Michigan. Elle a reçu le Candace Award (en) octroyé par la Coalition nationale des 100 femmes noires en 1986. Elle est membre du Congrès des chirurgiens neurologiques, de l'Association américaine des chirurgiens neurologiques, de la Society of Pediatric Neurosurgery et de l'American College of Neurosurgery. Elle a été diplômée du lycée Lansing Everett en 1967.
+Elle a également reçu trois diplômes honorifiques : un doctorat en lettres de l'Université de Detroit-Mercy en 1997 et de l'Université Roosevelt en 2014, et un doctorat en sciences de l'Université du Connecticut du Sud en 1999.
+Canady a également été présentée dans une courte animation du Mois de l'histoire des Noirs de Nickelodeon diffusée en février 2015 pour célébrer sa réussite en tant que première femme afro-américaine à devenir neurochirurgienne.
+Canada a déclaré qu'elle n'aimait pas attirer l'attention ou être célèbre. En revanche, elle a déclaré que "si vous faites du bon travail, le reste n'a pas d'importance".
 </t>
         </is>
       </c>
